--- a/data/trans_camb/P44-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P44-Habitat-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.084812977018476</v>
+        <v>0.7004013379091931</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>20.15168447732265</v>
+        <v>19.9090576853693</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.12089868574341</v>
+        <v>-0.9499978828840017</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18.49259667943263</v>
+        <v>18.5920697430996</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.056251899283764</v>
+        <v>1.111995483699847</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>20.50286824922553</v>
+        <v>20.35754716757758</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.3997293466597</v>
+        <v>10.24331017902368</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>31.23207004810617</v>
+        <v>30.73108126104884</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.35248386982557</v>
+        <v>7.546372466675328</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26.61691004584262</v>
+        <v>27.16839885937468</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.250426989720328</v>
+        <v>7.353428640403347</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>27.4128099602129</v>
+        <v>27.02886182349516</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.07294394626631416</v>
+        <v>0.05930645861228601</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>2.360488639122598</v>
+        <v>2.305087280265461</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1618052264417867</v>
+        <v>-0.1564312611167575</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>2.227812797816897</v>
+        <v>2.240680082713335</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1394750061345939</v>
+        <v>0.1344051791720538</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>2.723920132936107</v>
+        <v>2.849065095831531</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.013484702531685</v>
+        <v>2.84112717018556</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>9.062981875956238</v>
+        <v>8.270831046302563</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.087830122761969</v>
+        <v>1.940391299237402</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>7.432027163287112</v>
+        <v>7.996180692880907</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.682119483227063</v>
+        <v>1.644880258889639</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>6.883016956314766</v>
+        <v>7.183818693821162</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>-0.4791005092090336</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>23.51688619463666</v>
+        <v>23.51688619463667</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.010892233797173</v>
+        <v>-3.254810866067926</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>21.12358248116299</v>
+        <v>21.57108373347904</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.666836176922809</v>
+        <v>-5.732997048829012</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15.60652495699856</v>
+        <v>15.57416911347609</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.636090574025116</v>
+        <v>-3.586582517774816</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>19.86345841729743</v>
+        <v>20.03072311230941</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.07522577546516</v>
+        <v>5.511287931361427</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>32.76024999507759</v>
+        <v>32.42935523871871</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.111939577206103</v>
+        <v>2.473190581145243</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24.37439829080936</v>
+        <v>24.63090194428595</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.345270521726677</v>
+        <v>2.37091023050331</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>26.66876464000338</v>
+        <v>27.05090091403049</v>
       </c>
     </row>
     <row r="13">
@@ -862,7 +862,7 @@
         <v>-0.05289215772041474</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>2.59623780353167</v>
+        <v>2.596237803531671</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2881456563192287</v>
+        <v>-0.3049481590240405</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1.696771008489627</v>
+        <v>1.7754014772805</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5101436231775354</v>
+        <v>-0.5040498952955315</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1.255056018545726</v>
+        <v>1.251883830914654</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3289505264497759</v>
+        <v>-0.3323364543422239</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.786869591226211</v>
+        <v>1.787738037953018</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.062377373788996</v>
+        <v>0.8959564511951115</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5.569218179814686</v>
+        <v>5.46002507219883</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.303399182951597</v>
+        <v>0.399871504394553</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.386782013449906</v>
+        <v>3.550937169368154</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3210805432633069</v>
+        <v>0.3337060037600372</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.617863256414107</v>
+        <v>3.888809143704326</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.777423951707146</v>
+        <v>-7.408113822763557</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>14.23045349575503</v>
+        <v>13.33734502761032</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.098653833441386</v>
+        <v>-6.88291528772091</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11.37821636814004</v>
+        <v>10.56157373058703</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.911033170332301</v>
+        <v>-4.938427089701679</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>14.47754490177642</v>
+        <v>14.79567683805475</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.947730392846649</v>
+        <v>5.233350621463124</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>27.179379704868</v>
+        <v>27.27681826890296</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.120066594789652</v>
+        <v>2.327936914565143</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21.34397767440811</v>
+        <v>21.06529732639294</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.739804032120967</v>
+        <v>2.818711680881491</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>22.93109431952821</v>
+        <v>22.59617911294161</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4405985501004859</v>
+        <v>-0.4583815160185786</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.8636362057909601</v>
+        <v>0.7729304459049121</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6062006019691748</v>
+        <v>-0.6076112215101634</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.9036116628524178</v>
+        <v>0.875962341435083</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3875375239596816</v>
+        <v>-0.398146834908721</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.073799044073012</v>
+        <v>1.136663720142428</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7495757793935706</v>
+        <v>0.6207677477096432</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.228146338207867</v>
+        <v>3.358076513995154</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3570030989489317</v>
+        <v>0.3374852937362217</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.570153588933965</v>
+        <v>3.195114520702397</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.342438399410988</v>
+        <v>0.3721309021943842</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.866753090600525</v>
+        <v>2.850765918434076</v>
       </c>
     </row>
     <row r="22">
@@ -1092,7 +1092,7 @@
         <v>2.562174067610782</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>31.00758987648788</v>
+        <v>31.00758987648789</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>1.031423216986148</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.640203129304806</v>
+        <v>-2.43067563350454</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>25.38456840949823</v>
+        <v>25.22951416291252</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.505518576716971</v>
+        <v>-2.490156263600034</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24.90926311145886</v>
+        <v>24.88258178452978</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.328055340656388</v>
+        <v>-1.39764609923938</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>26.61394365006168</v>
+        <v>26.51017287702581</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.695073957719901</v>
+        <v>7.896474688370955</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>36.30704468476878</v>
+        <v>36.35729967276278</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.353908739628628</v>
+        <v>4.350940330812733</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>32.79896295304894</v>
+        <v>32.56743609985623</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.71977044919385</v>
+        <v>4.695972152467955</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>33.35349251002898</v>
+        <v>32.89575108332088</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1941353010988579</v>
+        <v>-0.1624137921794569</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1.605354831992508</v>
+        <v>1.627140835896303</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3309518715562694</v>
+        <v>-0.3264941665072515</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2.898151958095106</v>
+        <v>3.024168312664271</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1281529940882014</v>
+        <v>-0.1339722405895085</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2.544559409883298</v>
+        <v>2.548079364860194</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8726002436007897</v>
+        <v>0.8762187567297501</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4.119556740033369</v>
+        <v>4.226655368493835</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9613530794570645</v>
+        <v>0.9239903140167464</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7.558060871688986</v>
+        <v>7.516966322661878</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6673869669712873</v>
+        <v>0.6733165331344289</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.867276865012928</v>
+        <v>4.841869831729108</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.2475392556627925</v>
+        <v>-0.259492714962154</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.71787883414238</v>
+        <v>23.93780299660472</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.99500876484107</v>
+        <v>-2.039125345702559</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20.33913168151678</v>
+        <v>20.70739725638179</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.6580136062610081</v>
+        <v>-0.4408534813603082</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>23.0476701530008</v>
+        <v>22.81534006022883</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.781362759549705</v>
+        <v>4.942831466813461</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>29.55076859090433</v>
+        <v>29.41927641415141</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.902100510604785</v>
+        <v>1.92573342921992</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24.86983831525729</v>
+        <v>25.01797270317397</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.823511596694898</v>
+        <v>2.641798900398402</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>26.45524053081887</v>
+        <v>26.35646555595795</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.02658704861682854</v>
+        <v>-0.02823248333621844</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>2.102733677127556</v>
+        <v>2.104363921479787</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2405198023389686</v>
+        <v>-0.2352678425750311</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>2.301047597480152</v>
+        <v>2.326044927537994</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.07132836340458081</v>
+        <v>-0.04638533328606377</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>2.444909969668772</v>
+        <v>2.425301553990337</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5994881803036747</v>
+        <v>0.6069952283185476</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.755417902899091</v>
+        <v>3.729754242589152</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2817009788965603</v>
+        <v>0.2861100786240702</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>3.917823695678208</v>
+        <v>3.991814494041387</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3670416517191701</v>
+        <v>0.352703438940992</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>3.568134397633279</v>
+        <v>3.514625672604241</v>
       </c>
     </row>
     <row r="34">
